--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_fdb_test_ni_fdb_maximum_entries_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_fdb_test_ni_fdb_maximum_entries_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:7ccdcbaf-a3f1-436b-81e0-8fed389ded2d"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:5ad17a3a-375f-465c-b352-3706f1db49fa"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
